--- a/results/A-04.xlsx
+++ b/results/A-04.xlsx
@@ -733,37 +733,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6550.29569434688</v>
+        <v>-6544.271299816632</v>
       </c>
       <c r="C2">
-        <v>13722.55224775629</v>
+        <v>13709.61546051708</v>
       </c>
       <c r="D2">
-        <v>-6550.295699800909</v>
+        <v>-6544.271301772727</v>
       </c>
       <c r="E2">
-        <v>-621.9608536084853</v>
+        <v>-621.0728589275514</v>
       </c>
       <c r="F2">
-        <v>57.01860430670939</v>
+        <v>56.87534216409858</v>
       </c>
       <c r="G2">
-        <v>45.31545697361855</v>
+        <v>45.34803821248835</v>
       </c>
       <c r="H2">
-        <v>57.33887922740632</v>
+        <v>57.19007467166983</v>
       </c>
       <c r="I2">
-        <v>45.0801157949374</v>
+        <v>45.11578120160704</v>
       </c>
       <c r="J2">
-        <v>57.01860430703567</v>
+        <v>56.87534216421642</v>
       </c>
       <c r="K2">
-        <v>45.31545697616491</v>
+        <v>45.34803821349107</v>
       </c>
       <c r="L2">
-        <v>54.3575652776384</v>
+        <v>54.34895899973804</v>
       </c>
       <c r="M2">
         <v>45</v>
@@ -772,22 +772,22 @@
         <v>65</v>
       </c>
       <c r="O2">
-        <v>45.39635393177673</v>
+        <v>45.41483505640417</v>
       </c>
       <c r="P2">
-        <v>54.35756528542987</v>
+        <v>54.34895900253247</v>
       </c>
       <c r="Q2">
         <v>45</v>
       </c>
       <c r="R2">
-        <v>7.995768156468239</v>
+        <v>8.1102736936438</v>
       </c>
       <c r="S2">
-        <v>-15.99153632111084</v>
+        <v>-16.22054739033433</v>
       </c>
       <c r="T2">
-        <v>7.995768164642596</v>
+        <v>8.11027369669053</v>
       </c>
       <c r="U2">
         <v>10</v>
@@ -799,13 +799,13 @@
         <v>10</v>
       </c>
       <c r="X2">
-        <v>-131.3001002614219</v>
+        <v>-134.2333058426104</v>
       </c>
       <c r="Y2">
-        <v>-176.1585905555087</v>
+        <v>-175.2596612421746</v>
       </c>
       <c r="Z2">
-        <v>-131.300100261422</v>
+        <v>-134.2333058426103</v>
       </c>
       <c r="AB2">
         <v>10</v>
@@ -817,91 +817,91 @@
         <v>10</v>
       </c>
       <c r="AE2">
-        <v>-7.995768156468239</v>
+        <v>-8.1102736936438</v>
       </c>
       <c r="AF2">
-        <v>7.995768164642596</v>
+        <v>8.11027369669053</v>
       </c>
       <c r="AG2">
-        <v>7.995768156468239</v>
+        <v>8.1102736936438</v>
       </c>
       <c r="AH2">
-        <v>-15.99153632111084</v>
+        <v>-16.22054739033433</v>
       </c>
       <c r="AI2">
-        <v>7.995768164642596</v>
+        <v>8.11027369669053</v>
       </c>
       <c r="AJ2">
-        <v>7.995768156468239</v>
+        <v>8.1102736936438</v>
       </c>
       <c r="AK2">
-        <v>-7.995768164642596</v>
+        <v>-8.11027369669053</v>
       </c>
       <c r="AL2">
-        <v>22.42924514704335</v>
+        <v>20.51317769978211</v>
       </c>
       <c r="AM2">
-        <v>-22.42924514704335</v>
+        <v>-20.5131776997821</v>
       </c>
       <c r="AN2">
-        <v>-131.3001002614219</v>
+        <v>-134.2333058426104</v>
       </c>
       <c r="AO2">
-        <v>-176.1585905555087</v>
+        <v>-175.2596612421746</v>
       </c>
       <c r="AP2">
-        <v>-131.300100261422</v>
+        <v>-134.2333058426103</v>
       </c>
       <c r="AQ2">
-        <v>-22.42924514704335</v>
+        <v>-20.51317769978211</v>
       </c>
       <c r="AR2">
-        <v>22.42924514704335</v>
+        <v>20.5131776997821</v>
       </c>
       <c r="AS2">
-        <v>57.01860430670939</v>
+        <v>56.87534216409858</v>
       </c>
       <c r="AT2">
-        <v>57.01860430670939</v>
+        <v>56.87534216409858</v>
       </c>
       <c r="AU2">
-        <v>57.33887922740638</v>
+        <v>57.19007467166989</v>
       </c>
       <c r="AV2">
-        <v>57.33887922740638</v>
+        <v>57.19007467166989</v>
       </c>
       <c r="AW2">
-        <v>57.33887922740632</v>
+        <v>57.19007467166983</v>
       </c>
       <c r="AX2">
-        <v>57.01860430703567</v>
+        <v>56.87534216421642</v>
       </c>
       <c r="AY2">
-        <v>57.01860430703567</v>
+        <v>56.87534216421642</v>
       </c>
       <c r="AZ2">
-        <v>45.31545697361855</v>
+        <v>45.34803821248835</v>
       </c>
       <c r="BA2">
-        <v>45.31545697361855</v>
+        <v>45.34803821248835</v>
       </c>
       <c r="BB2">
-        <v>45.0801157949374</v>
+        <v>45.11578120160704</v>
       </c>
       <c r="BC2">
-        <v>45.08011579355338</v>
+        <v>45.11578120106589</v>
       </c>
       <c r="BD2">
-        <v>45.08011579632154</v>
+        <v>45.11578120214858</v>
       </c>
       <c r="BE2">
-        <v>45.31545697616491</v>
+        <v>45.34803821349107</v>
       </c>
       <c r="BF2">
-        <v>45.31545697616491</v>
+        <v>45.34803821349112</v>
       </c>
       <c r="BG2">
-        <v>54.3575652776384</v>
+        <v>54.34895899973804</v>
       </c>
       <c r="BH2">
         <v>45</v>
@@ -910,10 +910,10 @@
         <v>65</v>
       </c>
       <c r="BJ2">
-        <v>45.39635393177673</v>
+        <v>45.41483505640417</v>
       </c>
       <c r="BK2">
-        <v>54.35756528542987</v>
+        <v>54.34895900253247</v>
       </c>
       <c r="BL2">
         <v>45</v>
